--- a/Examples/top 50 posts as of 20_07_2015.xlsx
+++ b/Examples/top 50 posts as of 20_07_2015.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>http://lesswrong.com/lw/cbs/thoughts_on_the_singularity_institute_si/</t>
   </si>
@@ -325,19 +325,32 @@
   </si>
   <si>
     <t>Summary</t>
+  </si>
+  <si>
+    <t>http://lesswrong.com/lw/9p/extreme_rationality_its_not_that_great/</t>
+  </si>
+  <si>
+    <t>http://lesswrong.com/lw/fm/a_parable_on_obsolete_ideologies/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -357,13 +370,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -663,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -861,8 +880,8 @@
       <c r="C23" t="s">
         <v>41</v>
       </c>
-      <c r="D23" t="s">
-        <v>50</v>
+      <c r="D23" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="3:4">
@@ -1069,8 +1088,8 @@
       <c r="C49" t="s">
         <v>86</v>
       </c>
-      <c r="D49" t="s">
-        <v>95</v>
+      <c r="D49" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="3:4">
@@ -1090,8 +1109,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D23" r:id="rId1"/>
+    <hyperlink ref="D49" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
